--- a/assets/template_sus.xlsx
+++ b/assets/template_sus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alterkpicom.sharepoint.com/sites/AutresClients/Documents partages/Guillaume Gronier/AlterUX/Streamlit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alterkpicom.sharepoint.com/sites/AutresClients/Documents partages/Guillaume Gronier/AlterUX/Dash/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="8_{497170E7-5861-42CD-B489-591BD3ECACAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C85C76A-8B0F-49C9-9F96-8B7100EB1597}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="8_{497170E7-5861-42CD-B489-591BD3ECACAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D622A0F-D353-4D4A-A1D9-5B754720A8B6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{6A466B66-1920-4077-96D1-E0AFFE6A7795}"/>
   </bookViews>
@@ -35,8 +35,70 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Frédéric Michotte</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{5223D3BF-26FC-4F93-976B-80DA6051BB6E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Remplacer le titre par le nom de la catégorie si besoin.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{48BC2BAC-B950-46BF-BD40-B2D622CA534B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Remplacer le titre par le nom de la catégorie si besoin.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{041AAFE7-A59A-4C91-B46B-8A5E7C8B7766}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Remplacer le titre par le nom de la catégorie si besoin.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{0356AFF0-0785-430D-97D4-A5E8D7CEB358}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Remplacer le titre par le nom de la catégorie si besoin.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>Sujet</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -82,13 +144,40 @@
   </si>
   <si>
     <t>Category 2</t>
+  </si>
+  <si>
+    <t>Homme</t>
+  </si>
+  <si>
+    <t>30–50</t>
+  </si>
+  <si>
+    <t>Occasionnel</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Femme</t>
+  </si>
+  <si>
+    <t>&lt;30</t>
+  </si>
+  <si>
+    <t>Régulier</t>
+  </si>
+  <si>
+    <t>&gt;50</t>
+  </si>
+  <si>
+    <t>Desktop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +201,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -152,18 +247,122 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="30">
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -362,23 +561,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -390,22 +572,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -421,25 +587,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69BB8F63-E00E-4BAF-9903-F70C3E242848}" name="Table1" displayName="Table1" ref="A1:O2" headerRowDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{69BB8F63-E00E-4BAF-9903-F70C3E242848}" name="Table1" displayName="Table1" ref="A1:O11" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1" tableBorderDxfId="29">
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{5C07E236-41C9-4008-B703-E097FE213A79}" name="Sujet" dataDxfId="10" totalsRowDxfId="11">
-      <calculatedColumnFormula>A1+1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{13186BD4-BED7-4106-9BB7-3DB5A18F4516}" name="Question1" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{7A93A3F4-6A5A-4D3D-A9DF-551994894270}" name="Question2" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{DE6F33CD-7372-46F9-BC4A-73F717CFD2E5}" name="Question3" totalsRowDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{F222FA22-CD78-44B9-B424-CD67D1BEBA3B}" name="Question4" totalsRowDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{C6EFACCC-0108-467D-AE15-F48DD7BE1E24}" name="Question5" totalsRowDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{804BEFE1-90E0-4A1D-A0FB-3F6FE91900D5}" name="Question6" totalsRowDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{1F39F050-3E3A-4266-B62C-ECD7B8D563BE}" name="Question7" totalsRowDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{684D6D91-9DD1-486C-B0B7-4B22342D84F4}" name="Question8" totalsRowDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{03CF7BA5-3DD6-450A-B615-3CE729F596F0}" name="Question9" totalsRowDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{5D65C28E-2FFE-49DF-8875-15CA9AE60CE1}" name="Question10" totalsRowDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{5880E916-DD8D-406C-96DA-04BA039A1177}" name="Category 1"/>
-    <tableColumn id="13" xr3:uid="{5F0747E1-A9C5-44BF-90E6-7766D683B50F}" name="Category 2"/>
-    <tableColumn id="14" xr3:uid="{5F88574D-C97A-4D98-A82B-21D2EBE8A60D}" name="Category 3"/>
-    <tableColumn id="15" xr3:uid="{13007489-0E30-4909-AA66-3498707F1B6D}" name="Category 4"/>
+    <tableColumn id="1" xr3:uid="{5C07E236-41C9-4008-B703-E097FE213A79}" name="Sujet" dataDxfId="17" totalsRowDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{13186BD4-BED7-4106-9BB7-3DB5A18F4516}" name="Question1" dataDxfId="16" totalsRowDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{7A93A3F4-6A5A-4D3D-A9DF-551994894270}" name="Question2" dataDxfId="15" totalsRowDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{DE6F33CD-7372-46F9-BC4A-73F717CFD2E5}" name="Question3" dataDxfId="14" totalsRowDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{F222FA22-CD78-44B9-B424-CD67D1BEBA3B}" name="Question4" dataDxfId="13" totalsRowDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{C6EFACCC-0108-467D-AE15-F48DD7BE1E24}" name="Question5" dataDxfId="12" totalsRowDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{804BEFE1-90E0-4A1D-A0FB-3F6FE91900D5}" name="Question6" dataDxfId="11" totalsRowDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{1F39F050-3E3A-4266-B62C-ECD7B8D563BE}" name="Question7" dataDxfId="10" totalsRowDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{684D6D91-9DD1-486C-B0B7-4B22342D84F4}" name="Question8" dataDxfId="9" totalsRowDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{03CF7BA5-3DD6-450A-B615-3CE729F596F0}" name="Question9" dataDxfId="8" totalsRowDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{5D65C28E-2FFE-49DF-8875-15CA9AE60CE1}" name="Question10" dataDxfId="7" totalsRowDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{5880E916-DD8D-406C-96DA-04BA039A1177}" name="Category 1" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{5F0747E1-A9C5-44BF-90E6-7766D683B50F}" name="Category 2" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{5F88574D-C97A-4D98-A82B-21D2EBE8A60D}" name="Category 3" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{13007489-0E30-4909-AA66-3498707F1B6D}" name="Category 4" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -761,91 +925,551 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A33C7AF-B1EA-44FB-868E-2491E7B20326}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A33C7AF-B1EA-44FB-868E-2491E7B20326}">
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="15" width="17.08984375" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" style="2" customWidth="1"/>
+    <col min="2" max="11" width="10.1796875" style="5" customWidth="1"/>
+    <col min="12" max="15" width="17.08984375" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4">
+        <v>3</v>
+      </c>
+      <c r="K2" s="4">
+        <v>2</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5">
+        <v>3</v>
+      </c>
+      <c r="I3" s="5">
+        <v>3</v>
+      </c>
+      <c r="J3" s="5">
+        <v>4</v>
+      </c>
+      <c r="K3" s="5">
+        <v>3</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5">
+        <v>3</v>
+      </c>
+      <c r="K4" s="5">
+        <v>4</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5">
+        <v>3</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3</v>
+      </c>
+      <c r="I6" s="5">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5">
+        <v>4</v>
+      </c>
+      <c r="K6" s="5">
+        <v>3</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5">
+        <v>3</v>
+      </c>
+      <c r="H7" s="5">
+        <v>4</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3</v>
+      </c>
+      <c r="J7" s="5">
+        <v>4</v>
+      </c>
+      <c r="K7" s="5">
+        <v>4</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4</v>
+      </c>
+      <c r="J8" s="5">
+        <v>3</v>
+      </c>
+      <c r="K8" s="5">
+        <v>4</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5">
+        <v>4</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2</v>
+      </c>
+      <c r="I9" s="5">
+        <v>4</v>
+      </c>
+      <c r="J9" s="5">
+        <v>4</v>
+      </c>
+      <c r="K9" s="5">
+        <v>4</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3</v>
+      </c>
+      <c r="J10" s="5">
+        <v>3</v>
+      </c>
+      <c r="K10" s="5">
+        <v>4</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5">
+        <v>4</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>4</v>
+      </c>
+      <c r="K11" s="5">
+        <v>3</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="ffU2nqIqeZf1P6nFv3n2lWyWoIe64AsDlQLd4u+oG9FXtTYs7bxzPhN0IQbeqjXXyMv+QeuytcHOKt62wopJUw==" saltValue="YJyNmod3jERYkXjulgIuFA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023107A54E8B8B9488EB77197E8D12F37" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="fb5fec67f5fbd1e5ca4f47a3e4cd338b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fe95f226-17bd-48ac-b121-8b008b204525" xmlns:ns3="f1c2b24c-1bef-4db6-ac93-0552d2349689" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6a20917c992959ab6424ad783d6a1ec" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023107A54E8B8B9488EB77197E8D12F37" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="8d358518067bbe07db32bef8a7675f16">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fe95f226-17bd-48ac-b121-8b008b204525" xmlns:ns3="f1c2b24c-1bef-4db6-ac93-0552d2349689" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d9719c90ba3395da330de7fcde79a24" ns2:_="" ns3:_="">
     <xsd:import namespace="fe95f226-17bd-48ac-b121-8b008b204525"/>
     <xsd:import namespace="f1c2b24c-1bef-4db6-ac93-0552d2349689"/>
     <xsd:element name="properties">
@@ -1059,7 +1683,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3BDAA61-389A-4A9E-98BA-8A8C607F460C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA3E245F-0EDE-40A2-BB0A-BD0661313DEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fe95f226-17bd-48ac-b121-8b008b204525"/>
+    <ds:schemaRef ds:uri="f1c2b24c-1bef-4db6-ac93-0552d2349689"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
